--- a/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
@@ -825,7 +825,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.8215746235300017</v>
+        <v>0.8174183121868106</v>
       </c>
     </row>
     <row r="22">
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5663478186239407</v>
+        <v>0.5663478186239408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3246881929369979</v>
+        <v>0.324688192936998</v>
       </c>
     </row>
     <row r="23">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7597266076495007</v>
+        <v>0.7651491155501726</v>
       </c>
     </row>
     <row r="25">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.3056370857670518</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
     </row>
     <row r="27">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="28">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4368</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="28">
@@ -1473,7 +1473,7 @@
         <v>3120</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4134</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="32">
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="35">
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="36">
